--- a/school-calendars/St Ann School calendar curated 2025-08-14.xlsx
+++ b/school-calendars/St Ann School calendar curated 2025-08-14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbowen2\repos\rmorgan1711.github.io\school-calendars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34574080-DBA2-40FB-965E-6D2A375F18EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E674D9-618B-4557-BC93-D5BC256C4A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{74E7CB7D-AEA3-451A-95DA-CFCCA7E75DA9}"/>
   </bookViews>
@@ -2167,8 +2167,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" topLeftCell="H137" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:T210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2591,7 +2591,7 @@
         <v>45884</v>
       </c>
       <c r="N8" s="5" t="str">
-        <f>IF(HOUR(C8) = 0, "", TIME(HOUR(C8),MINUTE(C8),0))</f>
+        <f t="shared" ref="N8:N14" si="4">IF(HOUR(C8) = 0, "", TIME(HOUR(C8),MINUTE(C8),0))</f>
         <v/>
       </c>
       <c r="O8" s="4">
@@ -2599,7 +2599,7 @@
         <v>45884</v>
       </c>
       <c r="P8" s="5">
-        <f>IF(HOUR(B8) = 0, "", TIME(HOUR(B8),MINUTE(B8),0))</f>
+        <f t="shared" ref="P8:P14" si="5">IF(HOUR(B8) = 0, "", TIME(HOUR(B8),MINUTE(B8),0))</f>
         <v>0.47916666666666669</v>
       </c>
       <c r="R8" s="3" t="s">
@@ -2641,7 +2641,7 @@
         <v>45884</v>
       </c>
       <c r="N9" s="5">
-        <f>IF(HOUR(C9) = 0, "", TIME(HOUR(C9),MINUTE(C9),0))</f>
+        <f t="shared" si="4"/>
         <v>0.34375</v>
       </c>
       <c r="O9" s="4">
@@ -2649,7 +2649,7 @@
         <v>45884</v>
       </c>
       <c r="P9" s="5">
-        <f>IF(HOUR(B9) = 0, "", TIME(HOUR(B9),MINUTE(B9),0))</f>
+        <f t="shared" si="5"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -2697,7 +2697,7 @@
         <v>45885</v>
       </c>
       <c r="N10" s="5">
-        <f>IF(HOUR(C10) = 0, "", TIME(HOUR(C10),MINUTE(C10),0))</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="O10" s="4">
@@ -2705,7 +2705,7 @@
         <v>45885</v>
       </c>
       <c r="P10" s="5">
-        <f>IF(HOUR(B10) = 0, "", TIME(HOUR(B10),MINUTE(B10),0))</f>
+        <f t="shared" si="5"/>
         <v>0.70833333333333337</v>
       </c>
       <c r="R10" s="3" t="s">
@@ -2750,7 +2750,7 @@
         <v>45886</v>
       </c>
       <c r="N11" s="5">
-        <f>IF(HOUR(C11) = 0, "", TIME(HOUR(C11),MINUTE(C11),0))</f>
+        <f t="shared" si="4"/>
         <v>0.32291666666666669</v>
       </c>
       <c r="O11" s="4">
@@ -2758,7 +2758,7 @@
         <v>45886</v>
       </c>
       <c r="P11" s="5">
-        <f>IF(HOUR(B11) = 0, "", TIME(HOUR(B11),MINUTE(B11),0))</f>
+        <f t="shared" si="5"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="R11" s="3" t="s">
@@ -2803,7 +2803,7 @@
         <v>45886</v>
       </c>
       <c r="N12" s="5">
-        <f>IF(HOUR(C12) = 0, "", TIME(HOUR(C12),MINUTE(C12),0))</f>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="O12" s="4">
@@ -2811,7 +2811,7 @@
         <v>45886</v>
       </c>
       <c r="P12" s="5">
-        <f>IF(HOUR(B12) = 0, "", TIME(HOUR(B12),MINUTE(B12),0))</f>
+        <f t="shared" si="5"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="R12" s="3" t="s">
@@ -2856,7 +2856,7 @@
         <v>45886</v>
       </c>
       <c r="N13" s="5">
-        <f>IF(HOUR(C13) = 0, "", TIME(HOUR(C13),MINUTE(C13),0))</f>
+        <f t="shared" si="4"/>
         <v>0.4375</v>
       </c>
       <c r="O13" s="4">
@@ -2864,7 +2864,7 @@
         <v>45886</v>
       </c>
       <c r="P13" s="5">
-        <f>IF(HOUR(B13) = 0, "", TIME(HOUR(B13),MINUTE(B13),0))</f>
+        <f t="shared" si="5"/>
         <v>0.47916666666666669</v>
       </c>
       <c r="R13" s="3" t="s">
@@ -2909,7 +2909,7 @@
         <v>45886</v>
       </c>
       <c r="N14" s="5">
-        <f>IF(HOUR(C14) = 0, "", TIME(HOUR(C14),MINUTE(C14),0))</f>
+        <f t="shared" si="4"/>
         <v>0.70833333333333337</v>
       </c>
       <c r="O14" s="4">
@@ -2917,7 +2917,7 @@
         <v>45886</v>
       </c>
       <c r="P14" s="5">
-        <f>IF(HOUR(B14) = 0, "", TIME(HOUR(B14),MINUTE(B14),0))</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="R14" s="3" t="s">
@@ -3010,7 +3010,7 @@
         <v>45887</v>
       </c>
       <c r="N16" s="5" t="str">
-        <f>IF(HOUR(C16) = 0, "", TIME(HOUR(C16),MINUTE(C16),0))</f>
+        <f t="shared" ref="N16:N26" si="6">IF(HOUR(C16) = 0, "", TIME(HOUR(C16),MINUTE(C16),0))</f>
         <v/>
       </c>
       <c r="O16" s="4">
@@ -3018,7 +3018,7 @@
         <v>45888</v>
       </c>
       <c r="P16" s="5" t="str">
-        <f>IF(HOUR(B16) = 0, "", TIME(HOUR(B16),MINUTE(B16),0))</f>
+        <f t="shared" ref="P16:P26" si="7">IF(HOUR(B16) = 0, "", TIME(HOUR(B16),MINUTE(B16),0))</f>
         <v/>
       </c>
       <c r="R16" s="3" t="s">
@@ -3060,7 +3060,7 @@
         <v>45887</v>
       </c>
       <c r="N17" s="5" t="str">
-        <f>IF(HOUR(C17) = 0, "", TIME(HOUR(C17),MINUTE(C17),0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O17" s="4">
@@ -3068,7 +3068,7 @@
         <v>45888</v>
       </c>
       <c r="P17" s="5" t="str">
-        <f>IF(HOUR(B17) = 0, "", TIME(HOUR(B17),MINUTE(B17),0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R17" s="3" t="s">
@@ -3110,7 +3110,7 @@
         <v>45887</v>
       </c>
       <c r="N18" s="5" t="str">
-        <f>IF(HOUR(C18) = 0, "", TIME(HOUR(C18),MINUTE(C18),0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O18" s="4">
@@ -3118,7 +3118,7 @@
         <v>45888</v>
       </c>
       <c r="P18" s="5" t="str">
-        <f>IF(HOUR(B18) = 0, "", TIME(HOUR(B18),MINUTE(B18),0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R18" s="3" t="s">
@@ -3160,7 +3160,7 @@
         <v>45888</v>
       </c>
       <c r="N19" s="5" t="str">
-        <f>IF(HOUR(C19) = 0, "", TIME(HOUR(C19),MINUTE(C19),0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O19" s="4">
@@ -3168,7 +3168,7 @@
         <v>45889</v>
       </c>
       <c r="P19" s="5" t="str">
-        <f>IF(HOUR(B19) = 0, "", TIME(HOUR(B19),MINUTE(B19),0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R19" s="3" t="s">
@@ -3210,7 +3210,7 @@
         <v>45888</v>
       </c>
       <c r="N20" s="5">
-        <f>IF(HOUR(C20) = 0, "", TIME(HOUR(C20),MINUTE(C20),0))</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="O20" s="4">
@@ -3218,7 +3218,7 @@
         <v>45888</v>
       </c>
       <c r="P20" s="5">
-        <f>IF(HOUR(B20) = 0, "", TIME(HOUR(B20),MINUTE(B20),0))</f>
+        <f t="shared" si="7"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="R20" s="3" t="s">
@@ -3260,7 +3260,7 @@
         <v>45888</v>
       </c>
       <c r="N21" s="5">
-        <f>IF(HOUR(C21) = 0, "", TIME(HOUR(C21),MINUTE(C21),0))</f>
+        <f t="shared" si="6"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="O21" s="6">
@@ -3268,7 +3268,7 @@
         <v>45888</v>
       </c>
       <c r="P21" s="5">
-        <f>IF(HOUR(B21) = 0, "", TIME(HOUR(B21),MINUTE(B21),0))</f>
+        <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="Q21" s="3" t="s">
@@ -3313,7 +3313,7 @@
         <v>45889</v>
       </c>
       <c r="N22" s="5" t="str">
-        <f>IF(HOUR(C22) = 0, "", TIME(HOUR(C22),MINUTE(C22),0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O22" s="4">
@@ -3321,7 +3321,7 @@
         <v>45890</v>
       </c>
       <c r="P22" s="5" t="str">
-        <f>IF(HOUR(B22) = 0, "", TIME(HOUR(B22),MINUTE(B22),0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R22" s="3" t="s">
@@ -3369,7 +3369,7 @@
         <v>45889</v>
       </c>
       <c r="N23" s="5">
-        <f>IF(HOUR(C23) = 0, "", TIME(HOUR(C23),MINUTE(C23),0))</f>
+        <f t="shared" si="6"/>
         <v>0.34375</v>
       </c>
       <c r="O23" s="4">
@@ -3377,7 +3377,7 @@
         <v>45889</v>
       </c>
       <c r="P23" s="5">
-        <f>IF(HOUR(B23) = 0, "", TIME(HOUR(B23),MINUTE(B23),0))</f>
+        <f t="shared" si="7"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="R23" s="3" t="s">
@@ -3419,7 +3419,7 @@
         <v>45890</v>
       </c>
       <c r="N24" s="5" t="str">
-        <f>IF(HOUR(C24) = 0, "", TIME(HOUR(C24),MINUTE(C24),0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O24" s="4">
@@ -3427,7 +3427,7 @@
         <v>45891</v>
       </c>
       <c r="P24" s="5" t="str">
-        <f>IF(HOUR(B24) = 0, "", TIME(HOUR(B24),MINUTE(B24),0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R24" s="3" t="s">
@@ -3469,7 +3469,7 @@
         <v>45890</v>
       </c>
       <c r="N25" s="5">
-        <f>IF(HOUR(C25) = 0, "", TIME(HOUR(C25),MINUTE(C25),0))</f>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="O25" s="6">
@@ -3477,7 +3477,7 @@
         <v>45890</v>
       </c>
       <c r="P25" s="5">
-        <f>IF(HOUR(B25) = 0, "", TIME(HOUR(B25),MINUTE(B25),0))</f>
+        <f t="shared" si="7"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="Q25" s="3" t="s">
@@ -3522,7 +3522,7 @@
         <v>45891</v>
       </c>
       <c r="N26" s="5" t="str">
-        <f>IF(HOUR(C26) = 0, "", TIME(HOUR(C26),MINUTE(C26),0))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O26" s="4">
@@ -3530,7 +3530,7 @@
         <v>45892</v>
       </c>
       <c r="P26" s="5" t="str">
-        <f>IF(HOUR(B26) = 0, "", TIME(HOUR(B26),MINUTE(B26),0))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R26" s="3" t="s">
@@ -3588,10 +3588,10 @@
         <v>13</v>
       </c>
       <c r="S27" s="3">
+        <v>48</v>
+      </c>
+      <c r="T27" s="3">
         <v>24</v>
-      </c>
-      <c r="T27" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -4011,10 +4011,10 @@
         <v>13</v>
       </c>
       <c r="S35" s="3">
+        <v>48</v>
+      </c>
+      <c r="T35" s="3">
         <v>24</v>
-      </c>
-      <c r="T35" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
@@ -4052,7 +4052,7 @@
         <v>45910</v>
       </c>
       <c r="N36" s="5">
-        <f>IF(HOUR(C36) = 0, "", TIME(HOUR(C36),MINUTE(C36),0))</f>
+        <f t="shared" ref="N36:N41" si="8">IF(HOUR(C36) = 0, "", TIME(HOUR(C36),MINUTE(C36),0))</f>
         <v>0.375</v>
       </c>
       <c r="O36" s="4">
@@ -4060,7 +4060,7 @@
         <v>45910</v>
       </c>
       <c r="P36" s="5">
-        <f>IF(HOUR(B36) = 0, "", TIME(HOUR(B36),MINUTE(B36),0))</f>
+        <f t="shared" ref="P36:P41" si="9">IF(HOUR(B36) = 0, "", TIME(HOUR(B36),MINUTE(B36),0))</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="R36" s="3" t="s">
@@ -4102,7 +4102,7 @@
         <v>45916</v>
       </c>
       <c r="N37" s="5">
-        <f>IF(HOUR(C37) = 0, "", TIME(HOUR(C37),MINUTE(C37),0))</f>
+        <f t="shared" si="8"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="O37" s="6">
@@ -4110,7 +4110,7 @@
         <v>45916</v>
       </c>
       <c r="P37" s="5">
-        <f>IF(HOUR(B37) = 0, "", TIME(HOUR(B37),MINUTE(B37),0))</f>
+        <f t="shared" si="9"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="Q37" s="3" t="s">
@@ -4155,7 +4155,7 @@
         <v>45918</v>
       </c>
       <c r="N38" s="5">
-        <f>IF(HOUR(C38) = 0, "", TIME(HOUR(C38),MINUTE(C38),0))</f>
+        <f t="shared" si="8"/>
         <v>0.375</v>
       </c>
       <c r="O38" s="4">
@@ -4163,7 +4163,7 @@
         <v>45918</v>
       </c>
       <c r="P38" s="5">
-        <f>IF(HOUR(B38) = 0, "", TIME(HOUR(B38),MINUTE(B38),0))</f>
+        <f t="shared" si="9"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="R38" s="3" t="s">
@@ -4205,7 +4205,7 @@
         <v>45918</v>
       </c>
       <c r="N39" s="5">
-        <f>IF(HOUR(C39) = 0, "", TIME(HOUR(C39),MINUTE(C39),0))</f>
+        <f t="shared" si="8"/>
         <v>0.70833333333333337</v>
       </c>
       <c r="O39" s="6">
@@ -4213,7 +4213,7 @@
         <v>45918</v>
       </c>
       <c r="P39" s="5">
-        <f>IF(HOUR(B39) = 0, "", TIME(HOUR(B39),MINUTE(B39),0))</f>
+        <f t="shared" si="9"/>
         <v>0.875</v>
       </c>
       <c r="Q39" s="3" t="s">
@@ -4258,15 +4258,15 @@
         <v>45919</v>
       </c>
       <c r="N40" s="5" t="str">
-        <f>IF(HOUR(C40) = 0, "", TIME(HOUR(C40),MINUTE(C40),0))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O40" s="6">
-        <f t="shared" ref="O40:O41" si="4">B40</f>
+        <f t="shared" ref="O40:O41" si="10">B40</f>
         <v>45920</v>
       </c>
       <c r="P40" s="5" t="str">
-        <f>IF(HOUR(B40) = 0, "", TIME(HOUR(B40),MINUTE(B40),0))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q40" s="3" t="s">
@@ -4311,15 +4311,15 @@
         <v>45919</v>
       </c>
       <c r="N41" s="5" t="str">
-        <f>IF(HOUR(C41) = 0, "", TIME(HOUR(C41),MINUTE(C41),0))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45920</v>
       </c>
       <c r="P41" s="5" t="str">
-        <f>IF(HOUR(B41) = 0, "", TIME(HOUR(B41),MINUTE(B41),0))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q41" s="3" t="s">
@@ -4380,10 +4380,10 @@
         <v>13</v>
       </c>
       <c r="S42" s="3">
+        <v>48</v>
+      </c>
+      <c r="T42" s="3">
         <v>24</v>
-      </c>
-      <c r="T42" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
@@ -4472,7 +4472,7 @@
         <v>45926</v>
       </c>
       <c r="N44" s="5">
-        <f>IF(HOUR(C44) = 0, "", TIME(HOUR(C44),MINUTE(C44),0))</f>
+        <f t="shared" ref="N44:N50" si="11">IF(HOUR(C44) = 0, "", TIME(HOUR(C44),MINUTE(C44),0))</f>
         <v>0.34375</v>
       </c>
       <c r="O44" s="4">
@@ -4480,7 +4480,7 @@
         <v>45926</v>
       </c>
       <c r="P44" s="5">
-        <f>IF(HOUR(B44) = 0, "", TIME(HOUR(B44),MINUTE(B44),0))</f>
+        <f t="shared" ref="P44:P50" si="12">IF(HOUR(B44) = 0, "", TIME(HOUR(B44),MINUTE(B44),0))</f>
         <v>0.38541666666666669</v>
       </c>
       <c r="R44" s="3" t="s">
@@ -4522,7 +4522,7 @@
         <v>45930</v>
       </c>
       <c r="N45" s="5">
-        <f>IF(HOUR(C45) = 0, "", TIME(HOUR(C45),MINUTE(C45),0))</f>
+        <f t="shared" si="11"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="O45" s="6">
@@ -4530,7 +4530,7 @@
         <v>45930</v>
       </c>
       <c r="P45" s="5">
-        <f>IF(HOUR(B45) = 0, "", TIME(HOUR(B45),MINUTE(B45),0))</f>
+        <f t="shared" si="12"/>
         <v>0.4375</v>
       </c>
       <c r="Q45" s="3" t="s">
@@ -4575,7 +4575,7 @@
         <v>45932</v>
       </c>
       <c r="N46" s="5">
-        <f>IF(HOUR(C46) = 0, "", TIME(HOUR(C46),MINUTE(C46),0))</f>
+        <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
       <c r="O46" s="4">
@@ -4583,7 +4583,7 @@
         <v>45932</v>
       </c>
       <c r="P46" s="5">
-        <f>IF(HOUR(B46) = 0, "", TIME(HOUR(B46),MINUTE(B46),0))</f>
+        <f t="shared" si="12"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="R46" s="3" t="s">
@@ -4625,15 +4625,15 @@
         <v>45933</v>
       </c>
       <c r="N47" s="5" t="str">
-        <f>IF(HOUR(C47) = 0, "", TIME(HOUR(C47),MINUTE(C47),0))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O47" s="6">
-        <f t="shared" ref="O47:O48" si="5">B47</f>
+        <f t="shared" ref="O47:O48" si="13">B47</f>
         <v>45934</v>
       </c>
       <c r="P47" s="5" t="str">
-        <f>IF(HOUR(B47) = 0, "", TIME(HOUR(B47),MINUTE(B47),0))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q47" s="3" t="s">
@@ -4678,15 +4678,15 @@
         <v>45934</v>
       </c>
       <c r="N48" s="5" t="str">
-        <f>IF(HOUR(C48) = 0, "", TIME(HOUR(C48),MINUTE(C48),0))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O48" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45935</v>
       </c>
       <c r="P48" s="5" t="str">
-        <f>IF(HOUR(B48) = 0, "", TIME(HOUR(B48),MINUTE(B48),0))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q48" s="3" t="s">
@@ -4734,7 +4734,7 @@
         <v>45937</v>
       </c>
       <c r="N49" s="5">
-        <f>IF(HOUR(C49) = 0, "", TIME(HOUR(C49),MINUTE(C49),0))</f>
+        <f t="shared" si="11"/>
         <v>0.39583333333333331</v>
       </c>
       <c r="O49" s="4">
@@ -4742,7 +4742,7 @@
         <v>45937</v>
       </c>
       <c r="P49" s="5">
-        <f>IF(HOUR(B49) = 0, "", TIME(HOUR(B49),MINUTE(B49),0))</f>
+        <f t="shared" si="12"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="R49" s="3" t="s">
@@ -4784,7 +4784,7 @@
         <v>45940</v>
       </c>
       <c r="N50" s="5" t="str">
-        <f>IF(HOUR(C50) = 0, "", TIME(HOUR(C50),MINUTE(C50),0))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O50" s="4">
@@ -4792,7 +4792,7 @@
         <v>45941</v>
       </c>
       <c r="P50" s="5" t="str">
-        <f>IF(HOUR(B50) = 0, "", TIME(HOUR(B50),MINUTE(B50),0))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R50" s="3" t="s">
@@ -5001,10 +5001,10 @@
         <v>13</v>
       </c>
       <c r="S54" s="3">
+        <v>48</v>
+      </c>
+      <c r="T54" s="3">
         <v>24</v>
-      </c>
-      <c r="T54" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
@@ -5150,7 +5150,7 @@
         <v/>
       </c>
       <c r="O57" s="6">
-        <f t="shared" ref="O57:O58" si="6">B57</f>
+        <f t="shared" ref="O57:O58" si="14">B57</f>
         <v>45947</v>
       </c>
       <c r="P57" s="5" t="str">
@@ -5203,7 +5203,7 @@
         <v/>
       </c>
       <c r="O58" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>45948</v>
       </c>
       <c r="P58" s="5" t="str">
@@ -5371,10 +5371,10 @@
         <v>13</v>
       </c>
       <c r="S61" s="3">
+        <v>48</v>
+      </c>
+      <c r="T61" s="3">
         <v>24</v>
-      </c>
-      <c r="T61" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.25">
@@ -5412,7 +5412,7 @@
         <v>45961</v>
       </c>
       <c r="N62" s="5">
-        <f>IF(HOUR(C62) = 0, "", TIME(HOUR(C62),MINUTE(C62),0))</f>
+        <f t="shared" ref="N62:N67" si="15">IF(HOUR(C62) = 0, "", TIME(HOUR(C62),MINUTE(C62),0))</f>
         <v>0.59027777777777779</v>
       </c>
       <c r="O62" s="6">
@@ -5420,7 +5420,7 @@
         <v>45961</v>
       </c>
       <c r="P62" s="5">
-        <f>IF(HOUR(B62) = 0, "", TIME(HOUR(B62),MINUTE(B62),0))</f>
+        <f t="shared" ref="P62:P67" si="16">IF(HOUR(B62) = 0, "", TIME(HOUR(B62),MINUTE(B62),0))</f>
         <v>0.63194444444444442</v>
       </c>
       <c r="Q62" s="3" t="s">
@@ -5465,7 +5465,7 @@
         <v>45961</v>
       </c>
       <c r="N63" s="5">
-        <f>IF(HOUR(C63) = 0, "", TIME(HOUR(C63),MINUTE(C63),0))</f>
+        <f t="shared" si="15"/>
         <v>0.60416666666666663</v>
       </c>
       <c r="O63" s="6">
@@ -5473,7 +5473,7 @@
         <v>45961</v>
       </c>
       <c r="P63" s="5">
-        <f>IF(HOUR(B63) = 0, "", TIME(HOUR(B63),MINUTE(B63),0))</f>
+        <f t="shared" si="16"/>
         <v>0.64583333333333337</v>
       </c>
       <c r="Q63" s="3" t="s">
@@ -5518,7 +5518,7 @@
         <v>45962</v>
       </c>
       <c r="N64" s="5" t="str">
-        <f>IF(HOUR(C64) = 0, "", TIME(HOUR(C64),MINUTE(C64),0))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O64" s="4">
@@ -5526,7 +5526,7 @@
         <v>45963</v>
       </c>
       <c r="P64" s="5" t="str">
-        <f>IF(HOUR(B64) = 0, "", TIME(HOUR(B64),MINUTE(B64),0))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R64" s="3" t="s">
@@ -5568,7 +5568,7 @@
         <v>45965</v>
       </c>
       <c r="N65" s="5">
-        <f>IF(HOUR(C65) = 0, "", TIME(HOUR(C65),MINUTE(C65),0))</f>
+        <f t="shared" si="15"/>
         <v>0.375</v>
       </c>
       <c r="O65" s="6">
@@ -5576,7 +5576,7 @@
         <v>45965</v>
       </c>
       <c r="P65" s="5">
-        <f>IF(HOUR(B65) = 0, "", TIME(HOUR(B65),MINUTE(B65),0))</f>
+        <f t="shared" si="16"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="Q65" s="3" t="s">
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" ref="K66:K129" si="7">WEEKDAY(C66,11)</f>
+        <f t="shared" ref="K66:K129" si="17">WEEKDAY(C66,11)</f>
         <v>5</v>
       </c>
       <c r="L66" s="3" t="b">
@@ -5617,19 +5617,19 @@
         <v>0</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" ref="M66:M129" si="8">DATE(YEAR(C66),MONTH(C66),DAY(C66))</f>
+        <f t="shared" ref="M66:M129" si="18">DATE(YEAR(C66),MONTH(C66),DAY(C66))</f>
         <v>45968</v>
       </c>
       <c r="N66" s="5">
-        <f>IF(HOUR(C66) = 0, "", TIME(HOUR(C66),MINUTE(C66),0))</f>
+        <f t="shared" si="15"/>
         <v>0.34375</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" ref="O66:O129" si="9">DATE(YEAR(B66),MONTH(B66),DAY(B66))</f>
+        <f t="shared" ref="O66:O129" si="19">DATE(YEAR(B66),MONTH(B66),DAY(B66))</f>
         <v>45968</v>
       </c>
       <c r="P66" s="5">
-        <f>IF(HOUR(B66) = 0, "", TIME(HOUR(B66),MINUTE(B66),0))</f>
+        <f t="shared" si="16"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="R66" s="3" t="s">
@@ -5659,27 +5659,27 @@
         <v>0</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L67" s="3" t="b">
-        <f t="shared" ref="L67:L130" si="10">IF(ISNUMBER(N67), FALSE, TRUE)</f>
+        <f t="shared" ref="L67:L130" si="20">IF(ISNUMBER(N67), FALSE, TRUE)</f>
         <v>0</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45968</v>
       </c>
       <c r="N67" s="5">
-        <f>IF(HOUR(C67) = 0, "", TIME(HOUR(C67),MINUTE(C67),0))</f>
+        <f t="shared" si="15"/>
         <v>0.47916666666666669</v>
       </c>
       <c r="O67" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45968</v>
       </c>
       <c r="P67" s="5">
-        <f>IF(HOUR(B67) = 0, "", TIME(HOUR(B67),MINUTE(B67),0))</f>
+        <f t="shared" si="16"/>
         <v>0.52083333333333337</v>
       </c>
       <c r="R67" s="3" t="s">
@@ -5709,22 +5709,22 @@
         <v>1</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L68" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45968</v>
       </c>
       <c r="N68" s="5">
         <v>0.47916666666666669</v>
       </c>
       <c r="O68" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45968</v>
       </c>
       <c r="P68" s="5">
@@ -5760,15 +5760,15 @@
         <v>1</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L69" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M69" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45971</v>
       </c>
       <c r="N69" s="5">
@@ -5788,10 +5788,10 @@
         <v>13</v>
       </c>
       <c r="S69" s="3">
+        <v>48</v>
+      </c>
+      <c r="T69" s="3">
         <v>24</v>
-      </c>
-      <c r="T69" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="70" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
@@ -5817,15 +5817,15 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L70" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45972</v>
       </c>
       <c r="N70" s="5">
@@ -5833,7 +5833,7 @@
         <v>0.5625</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45972</v>
       </c>
       <c r="P70" s="5">
@@ -5867,15 +5867,15 @@
         <v>0</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L71" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45972</v>
       </c>
       <c r="N71" s="5">
@@ -5883,7 +5883,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45972</v>
       </c>
       <c r="P71" s="5">
@@ -5917,15 +5917,15 @@
         <v>0</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L72" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45973</v>
       </c>
       <c r="N72" s="5">
@@ -5933,7 +5933,7 @@
         <v>0.375</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45973</v>
       </c>
       <c r="P72" s="5">
@@ -5967,15 +5967,15 @@
         <v>0</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L73" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M73" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45974</v>
       </c>
       <c r="N73" s="5">
@@ -5983,7 +5983,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="O73" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45974</v>
       </c>
       <c r="P73" s="5">
@@ -6017,15 +6017,15 @@
         <v>1</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L74" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M74" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45975</v>
       </c>
       <c r="N74" s="5">
@@ -6068,15 +6068,15 @@
         <v>0</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="L75" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M75" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45977</v>
       </c>
       <c r="N75" s="5" t="str">
@@ -6084,7 +6084,7 @@
         <v/>
       </c>
       <c r="O75" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45978</v>
       </c>
       <c r="P75" s="5" t="str">
@@ -6118,15 +6118,15 @@
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L76" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M76" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45978</v>
       </c>
       <c r="N76" s="5" t="str">
@@ -6134,7 +6134,7 @@
         <v/>
       </c>
       <c r="O76" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45979</v>
       </c>
       <c r="P76" s="5" t="str">
@@ -6168,15 +6168,15 @@
         <v>0</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L77" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M77" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45979</v>
       </c>
       <c r="N77" s="5" t="str">
@@ -6184,7 +6184,7 @@
         <v/>
       </c>
       <c r="O77" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45980</v>
       </c>
       <c r="P77" s="5" t="str">
@@ -6218,15 +6218,15 @@
         <v>0</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L78" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45980</v>
       </c>
       <c r="N78" s="5" t="str">
@@ -6234,7 +6234,7 @@
         <v/>
       </c>
       <c r="O78" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45981</v>
       </c>
       <c r="P78" s="5" t="str">
@@ -6268,15 +6268,15 @@
         <v>0</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L79" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M79" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45981</v>
       </c>
       <c r="N79" s="5" t="str">
@@ -6284,7 +6284,7 @@
         <v/>
       </c>
       <c r="O79" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45982</v>
       </c>
       <c r="P79" s="5" t="str">
@@ -6318,15 +6318,15 @@
         <v>1</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L80" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M80" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45982</v>
       </c>
       <c r="N80" s="5">
@@ -6369,15 +6369,15 @@
         <v>1</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L81" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M81" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45982</v>
       </c>
       <c r="N81" s="5">
@@ -6420,27 +6420,27 @@
         <v>0</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L82" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M82" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45982</v>
       </c>
       <c r="N82" s="5">
-        <f>IF(HOUR(C82) = 0, "", TIME(HOUR(C82),MINUTE(C82),0))</f>
+        <f t="shared" ref="N82:N87" si="21">IF(HOUR(C82) = 0, "", TIME(HOUR(C82),MINUTE(C82),0))</f>
         <v>0.34375</v>
       </c>
       <c r="O82" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45982</v>
       </c>
       <c r="P82" s="5">
-        <f>IF(HOUR(B82) = 0, "", TIME(HOUR(B82),MINUTE(B82),0))</f>
+        <f t="shared" ref="P82:P87" si="22">IF(HOUR(B82) = 0, "", TIME(HOUR(B82),MINUTE(B82),0))</f>
         <v>0.38541666666666669</v>
       </c>
       <c r="R82" s="3" t="s">
@@ -6470,27 +6470,27 @@
         <v>1</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L83" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M83" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45985</v>
       </c>
       <c r="N83" s="5" t="str">
-        <f>IF(HOUR(C83) = 0, "", TIME(HOUR(C83),MINUTE(C83),0))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O83" s="6">
-        <f t="shared" ref="O83:O87" si="11">B83</f>
+        <f t="shared" ref="O83:O87" si="23">B83</f>
         <v>45986</v>
       </c>
       <c r="P83" s="5" t="str">
-        <f>IF(HOUR(B83) = 0, "", TIME(HOUR(B83),MINUTE(B83),0))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Q83" s="3" t="s">
@@ -6523,27 +6523,27 @@
         <v>1</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L84" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M84" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45986</v>
       </c>
       <c r="N84" s="5" t="str">
-        <f>IF(HOUR(C84) = 0, "", TIME(HOUR(C84),MINUTE(C84),0))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O84" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>45987</v>
       </c>
       <c r="P84" s="5" t="str">
-        <f>IF(HOUR(B84) = 0, "", TIME(HOUR(B84),MINUTE(B84),0))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Q84" s="3" t="s">
@@ -6576,27 +6576,27 @@
         <v>1</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L85" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M85" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45987</v>
       </c>
       <c r="N85" s="5" t="str">
-        <f>IF(HOUR(C85) = 0, "", TIME(HOUR(C85),MINUTE(C85),0))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O85" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>45988</v>
       </c>
       <c r="P85" s="5" t="str">
-        <f>IF(HOUR(B85) = 0, "", TIME(HOUR(B85),MINUTE(B85),0))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Q85" s="3" t="s">
@@ -6629,27 +6629,27 @@
         <v>1</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L86" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M86" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45988</v>
       </c>
       <c r="N86" s="5" t="str">
-        <f>IF(HOUR(C86) = 0, "", TIME(HOUR(C86),MINUTE(C86),0))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O86" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>45989</v>
       </c>
       <c r="P86" s="5" t="str">
-        <f>IF(HOUR(B86) = 0, "", TIME(HOUR(B86),MINUTE(B86),0))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Q86" s="3" t="s">
@@ -6682,27 +6682,27 @@
         <v>1</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L87" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M87" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45989</v>
       </c>
       <c r="N87" s="5" t="str">
-        <f>IF(HOUR(C87) = 0, "", TIME(HOUR(C87),MINUTE(C87),0))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O87" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>45990</v>
       </c>
       <c r="P87" s="5" t="str">
-        <f>IF(HOUR(B87) = 0, "", TIME(HOUR(B87),MINUTE(B87),0))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Q87" s="3" t="s">
@@ -6735,15 +6735,15 @@
         <v>1</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L88" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M88" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45996</v>
       </c>
       <c r="N88" s="5">
@@ -6786,15 +6786,15 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L89" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M89" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45996</v>
       </c>
       <c r="N89" s="5" t="str">
@@ -6802,7 +6802,7 @@
         <v/>
       </c>
       <c r="O89" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45997</v>
       </c>
       <c r="P89" s="5" t="str">
@@ -6836,15 +6836,15 @@
         <v>1</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L90" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M90" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45999</v>
       </c>
       <c r="N90" s="5">
@@ -6864,10 +6864,10 @@
         <v>13</v>
       </c>
       <c r="S90" s="3">
+        <v>48</v>
+      </c>
+      <c r="T90" s="3">
         <v>24</v>
-      </c>
-      <c r="T90" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="91" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
@@ -6893,27 +6893,27 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L91" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M91" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>45999</v>
       </c>
       <c r="N91" s="5">
-        <f>IF(HOUR(C91) = 0, "", TIME(HOUR(C91),MINUTE(C91),0))</f>
+        <f t="shared" ref="N91:N99" si="24">IF(HOUR(C91) = 0, "", TIME(HOUR(C91),MINUTE(C91),0))</f>
         <v>0.34375</v>
       </c>
       <c r="O91" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>45999</v>
       </c>
       <c r="P91" s="5">
-        <f>IF(HOUR(B91) = 0, "", TIME(HOUR(B91),MINUTE(B91),0))</f>
+        <f t="shared" ref="P91:P99" si="25">IF(HOUR(B91) = 0, "", TIME(HOUR(B91),MINUTE(B91),0))</f>
         <v>0.38541666666666669</v>
       </c>
       <c r="R91" s="3" t="s">
@@ -6943,27 +6943,27 @@
         <v>1</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L92" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M92" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46000</v>
       </c>
       <c r="N92" s="5">
-        <f>IF(HOUR(C92) = 0, "", TIME(HOUR(C92),MINUTE(C92),0))</f>
+        <f t="shared" si="24"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="O92" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46000</v>
       </c>
       <c r="P92" s="5">
-        <f>IF(HOUR(B92) = 0, "", TIME(HOUR(B92),MINUTE(B92),0))</f>
+        <f t="shared" si="25"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="Q92" s="3" t="s">
@@ -6996,27 +6996,27 @@
         <v>1</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L93" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M93" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46008</v>
       </c>
       <c r="N93" s="5">
-        <f>IF(HOUR(C93) = 0, "", TIME(HOUR(C93),MINUTE(C93),0))</f>
+        <f t="shared" si="24"/>
         <v>0.5625</v>
       </c>
       <c r="O93" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46008</v>
       </c>
       <c r="P93" s="5">
-        <f>IF(HOUR(B93) = 0, "", TIME(HOUR(B93),MINUTE(B93),0))</f>
+        <f t="shared" si="25"/>
         <v>0.60416666666666663</v>
       </c>
       <c r="Q93" s="3" t="s">
@@ -7049,27 +7049,27 @@
         <v>1</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L94" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M94" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46008</v>
       </c>
       <c r="N94" s="5">
-        <f>IF(HOUR(C94) = 0, "", TIME(HOUR(C94),MINUTE(C94),0))</f>
+        <f t="shared" si="24"/>
         <v>0.77083333333333337</v>
       </c>
       <c r="O94" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46008</v>
       </c>
       <c r="P94" s="5">
-        <f>IF(HOUR(B94) = 0, "", TIME(HOUR(B94),MINUTE(B94),0))</f>
+        <f t="shared" si="25"/>
         <v>0.8125</v>
       </c>
       <c r="Q94" s="3" t="s">
@@ -7102,27 +7102,27 @@
         <v>0</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L95" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M95" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46009</v>
       </c>
       <c r="N95" s="5">
-        <f>IF(HOUR(C95) = 0, "", TIME(HOUR(C95),MINUTE(C95),0))</f>
+        <f t="shared" si="24"/>
         <v>0.375</v>
       </c>
       <c r="O95" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46009</v>
       </c>
       <c r="P95" s="5">
-        <f>IF(HOUR(B95) = 0, "", TIME(HOUR(B95),MINUTE(B95),0))</f>
+        <f t="shared" si="25"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="R95" s="3" t="s">
@@ -7152,27 +7152,27 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L96" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M96" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46009</v>
       </c>
       <c r="N96" s="5">
-        <f>IF(HOUR(C96) = 0, "", TIME(HOUR(C96),MINUTE(C96),0))</f>
+        <f t="shared" si="24"/>
         <v>0.77083333333333337</v>
       </c>
       <c r="O96" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46009</v>
       </c>
       <c r="P96" s="5">
-        <f>IF(HOUR(B96) = 0, "", TIME(HOUR(B96),MINUTE(B96),0))</f>
+        <f t="shared" si="25"/>
         <v>0.8125</v>
       </c>
       <c r="R96" s="3" t="s">
@@ -7202,27 +7202,27 @@
         <v>0</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L97" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M97" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46010</v>
       </c>
       <c r="N97" s="5">
-        <f>IF(HOUR(C97) = 0, "", TIME(HOUR(C97),MINUTE(C97),0))</f>
+        <f t="shared" si="24"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="O97" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46010</v>
       </c>
       <c r="P97" s="5">
-        <f>IF(HOUR(B97) = 0, "", TIME(HOUR(B97),MINUTE(B97),0))</f>
+        <f t="shared" si="25"/>
         <v>0.47916666666666669</v>
       </c>
       <c r="R97" s="3" t="s">
@@ -7252,27 +7252,27 @@
         <v>1</v>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L98" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M98" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46010</v>
       </c>
       <c r="N98" s="5">
-        <f>IF(HOUR(C98) = 0, "", TIME(HOUR(C98),MINUTE(C98),0))</f>
+        <f t="shared" si="24"/>
         <v>0.46875</v>
       </c>
       <c r="O98" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46010</v>
       </c>
       <c r="P98" s="5">
-        <f>IF(HOUR(B98) = 0, "", TIME(HOUR(B98),MINUTE(B98),0))</f>
+        <f t="shared" si="25"/>
         <v>0.51041666666666663</v>
       </c>
       <c r="Q98" s="3" t="s">
@@ -7305,27 +7305,27 @@
         <v>0</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L99" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M99" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46010</v>
       </c>
       <c r="N99" s="5">
-        <f>IF(HOUR(C99) = 0, "", TIME(HOUR(C99),MINUTE(C99),0))</f>
+        <f t="shared" si="24"/>
         <v>0.47916666666666669</v>
       </c>
       <c r="O99" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46010</v>
       </c>
       <c r="P99" s="5">
-        <f>IF(HOUR(B99) = 0, "", TIME(HOUR(B99),MINUTE(B99),0))</f>
+        <f t="shared" si="25"/>
         <v>0.52083333333333337</v>
       </c>
       <c r="R99" s="3" t="s">
@@ -7355,22 +7355,22 @@
         <v>1</v>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L100" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M100" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46010</v>
       </c>
       <c r="N100" s="5">
         <v>0.47916666666666669</v>
       </c>
       <c r="O100" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46010</v>
       </c>
       <c r="P100" s="5">
@@ -7406,27 +7406,27 @@
         <v>1</v>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L101" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M101" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46013</v>
       </c>
       <c r="N101" s="5" t="str">
-        <f>IF(HOUR(C101) = 0, "", TIME(HOUR(C101),MINUTE(C101),0))</f>
+        <f t="shared" ref="N101:N112" si="26">IF(HOUR(C101) = 0, "", TIME(HOUR(C101),MINUTE(C101),0))</f>
         <v/>
       </c>
       <c r="O101" s="6">
-        <f t="shared" ref="O101:O111" si="12">B101</f>
+        <f t="shared" ref="O101:O111" si="27">B101</f>
         <v>46014</v>
       </c>
       <c r="P101" s="5" t="str">
-        <f>IF(HOUR(B101) = 0, "", TIME(HOUR(B101),MINUTE(B101),0))</f>
+        <f t="shared" ref="P101:P112" si="28">IF(HOUR(B101) = 0, "", TIME(HOUR(B101),MINUTE(B101),0))</f>
         <v/>
       </c>
       <c r="Q101" s="3" t="s">
@@ -7459,27 +7459,27 @@
         <v>1</v>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L102" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M102" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46014</v>
       </c>
       <c r="N102" s="5" t="str">
-        <f>IF(HOUR(C102) = 0, "", TIME(HOUR(C102),MINUTE(C102),0))</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O102" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>46015</v>
       </c>
       <c r="P102" s="5" t="str">
-        <f>IF(HOUR(B102) = 0, "", TIME(HOUR(B102),MINUTE(B102),0))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q102" s="3" t="s">
@@ -7512,27 +7512,27 @@
         <v>1</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L103" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M103" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46015</v>
       </c>
       <c r="N103" s="5" t="str">
-        <f>IF(HOUR(C103) = 0, "", TIME(HOUR(C103),MINUTE(C103),0))</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O103" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>46016</v>
       </c>
       <c r="P103" s="5" t="str">
-        <f>IF(HOUR(B103) = 0, "", TIME(HOUR(B103),MINUTE(B103),0))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q103" s="3" t="s">
@@ -7565,27 +7565,27 @@
         <v>1</v>
       </c>
       <c r="K104" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L104" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M104" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46016</v>
       </c>
       <c r="N104" s="5" t="str">
-        <f>IF(HOUR(C104) = 0, "", TIME(HOUR(C104),MINUTE(C104),0))</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O104" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>46017</v>
       </c>
       <c r="P104" s="5" t="str">
-        <f>IF(HOUR(B104) = 0, "", TIME(HOUR(B104),MINUTE(B104),0))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q104" s="3" t="s">
@@ -7618,27 +7618,27 @@
         <v>1</v>
       </c>
       <c r="K105" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L105" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M105" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46017</v>
       </c>
       <c r="N105" s="5" t="str">
-        <f>IF(HOUR(C105) = 0, "", TIME(HOUR(C105),MINUTE(C105),0))</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O105" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>46018</v>
       </c>
       <c r="P105" s="5" t="str">
-        <f>IF(HOUR(B105) = 0, "", TIME(HOUR(B105),MINUTE(B105),0))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q105" s="3" t="s">
@@ -7671,27 +7671,27 @@
         <v>1</v>
       </c>
       <c r="K106" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L106" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M106" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46020</v>
       </c>
       <c r="N106" s="5" t="str">
-        <f>IF(HOUR(C106) = 0, "", TIME(HOUR(C106),MINUTE(C106),0))</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O106" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>46021</v>
       </c>
       <c r="P106" s="5" t="str">
-        <f>IF(HOUR(B106) = 0, "", TIME(HOUR(B106),MINUTE(B106),0))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q106" s="3" t="s">
@@ -7724,27 +7724,27 @@
         <v>1</v>
       </c>
       <c r="K107" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L107" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M107" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46021</v>
       </c>
       <c r="N107" s="5" t="str">
-        <f>IF(HOUR(C107) = 0, "", TIME(HOUR(C107),MINUTE(C107),0))</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O107" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>46022</v>
       </c>
       <c r="P107" s="5" t="str">
-        <f>IF(HOUR(B107) = 0, "", TIME(HOUR(B107),MINUTE(B107),0))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q107" s="3" t="s">
@@ -7777,27 +7777,27 @@
         <v>1</v>
       </c>
       <c r="K108" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L108" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M108" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46022</v>
       </c>
       <c r="N108" s="5" t="str">
-        <f>IF(HOUR(C108) = 0, "", TIME(HOUR(C108),MINUTE(C108),0))</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O108" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>46023</v>
       </c>
       <c r="P108" s="5" t="str">
-        <f>IF(HOUR(B108) = 0, "", TIME(HOUR(B108),MINUTE(B108),0))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q108" s="3" t="s">
@@ -7830,27 +7830,27 @@
         <v>1</v>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L109" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M109" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46023</v>
       </c>
       <c r="N109" s="5" t="str">
-        <f>IF(HOUR(C109) = 0, "", TIME(HOUR(C109),MINUTE(C109),0))</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O109" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>46024</v>
       </c>
       <c r="P109" s="5" t="str">
-        <f>IF(HOUR(B109) = 0, "", TIME(HOUR(B109),MINUTE(B109),0))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q109" s="3" t="s">
@@ -7883,27 +7883,27 @@
         <v>1</v>
       </c>
       <c r="K110" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L110" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M110" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46024</v>
       </c>
       <c r="N110" s="5" t="str">
-        <f>IF(HOUR(C110) = 0, "", TIME(HOUR(C110),MINUTE(C110),0))</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O110" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>46025</v>
       </c>
       <c r="P110" s="5" t="str">
-        <f>IF(HOUR(B110) = 0, "", TIME(HOUR(B110),MINUTE(B110),0))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q110" s="3" t="s">
@@ -7936,27 +7936,27 @@
         <v>1</v>
       </c>
       <c r="K111" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L111" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M111" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46027</v>
       </c>
       <c r="N111" s="5" t="str">
-        <f>IF(HOUR(C111) = 0, "", TIME(HOUR(C111),MINUTE(C111),0))</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O111" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="27"/>
         <v>46028</v>
       </c>
       <c r="P111" s="5" t="str">
-        <f>IF(HOUR(B111) = 0, "", TIME(HOUR(B111),MINUTE(B111),0))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q111" s="3" t="s">
@@ -7989,27 +7989,27 @@
         <v>0</v>
       </c>
       <c r="K112" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L112" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M112" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46028</v>
       </c>
       <c r="N112" s="5" t="str">
-        <f>IF(HOUR(C112) = 0, "", TIME(HOUR(C112),MINUTE(C112),0))</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O112" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46029</v>
       </c>
       <c r="P112" s="5" t="str">
-        <f>IF(HOUR(B112) = 0, "", TIME(HOUR(B112),MINUTE(B112),0))</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="R112" s="3" t="s">
@@ -8039,15 +8039,15 @@
         <v>1</v>
       </c>
       <c r="K113" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L113" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M113" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46031</v>
       </c>
       <c r="N113" s="5">
@@ -8090,15 +8090,15 @@
         <v>0</v>
       </c>
       <c r="K114" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L114" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M114" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46031</v>
       </c>
       <c r="N114" s="5" t="str">
@@ -8140,15 +8140,15 @@
         <v>1</v>
       </c>
       <c r="K115" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L115" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M115" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46034</v>
       </c>
       <c r="N115" s="5">
@@ -8168,10 +8168,10 @@
         <v>13</v>
       </c>
       <c r="S115" s="3">
+        <v>48</v>
+      </c>
+      <c r="T115" s="3">
         <v>24</v>
-      </c>
-      <c r="T115" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="116" spans="2:20" x14ac:dyDescent="0.25">
@@ -8197,27 +8197,27 @@
         <v>1</v>
       </c>
       <c r="K116" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L116" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M116" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46035</v>
       </c>
       <c r="N116" s="5">
-        <f>IF(HOUR(C116) = 0, "", TIME(HOUR(C116),MINUTE(C116),0))</f>
+        <f t="shared" ref="N116:N121" si="29">IF(HOUR(C116) = 0, "", TIME(HOUR(C116),MINUTE(C116),0))</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="O116" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46035</v>
       </c>
       <c r="P116" s="5">
-        <f>IF(HOUR(B116) = 0, "", TIME(HOUR(B116),MINUTE(B116),0))</f>
+        <f t="shared" ref="P116:P121" si="30">IF(HOUR(B116) = 0, "", TIME(HOUR(B116),MINUTE(B116),0))</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="Q116" s="3" t="s">
@@ -8250,27 +8250,27 @@
         <v>0</v>
       </c>
       <c r="K117" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L117" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M117" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46036</v>
       </c>
       <c r="N117" s="5">
-        <f>IF(HOUR(C117) = 0, "", TIME(HOUR(C117),MINUTE(C117),0))</f>
+        <f t="shared" si="29"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="O117" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46036</v>
       </c>
       <c r="P117" s="5">
-        <f>IF(HOUR(B117) = 0, "", TIME(HOUR(B117),MINUTE(B117),0))</f>
+        <f t="shared" si="30"/>
         <v>0.42708333333333331</v>
       </c>
       <c r="R117" s="3" t="s">
@@ -8300,19 +8300,19 @@
         <v>1</v>
       </c>
       <c r="K118" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L118" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M118" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46041</v>
       </c>
       <c r="N118" s="5" t="str">
-        <f>IF(HOUR(C118) = 0, "", TIME(HOUR(C118),MINUTE(C118),0))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O118" s="6">
@@ -8320,7 +8320,7 @@
         <v>46042</v>
       </c>
       <c r="P118" s="5" t="str">
-        <f>IF(HOUR(B118) = 0, "", TIME(HOUR(B118),MINUTE(B118),0))</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Q118" s="3" t="s">
@@ -8353,27 +8353,27 @@
         <v>0</v>
       </c>
       <c r="K119" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L119" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M119" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46044</v>
       </c>
       <c r="N119" s="5">
-        <f>IF(HOUR(C119) = 0, "", TIME(HOUR(C119),MINUTE(C119),0))</f>
+        <f t="shared" si="29"/>
         <v>0.375</v>
       </c>
       <c r="O119" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46044</v>
       </c>
       <c r="P119" s="5">
-        <f>IF(HOUR(B119) = 0, "", TIME(HOUR(B119),MINUTE(B119),0))</f>
+        <f t="shared" si="30"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="R119" s="3" t="s">
@@ -8403,27 +8403,27 @@
         <v>0</v>
       </c>
       <c r="K120" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L120" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M120" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46044</v>
       </c>
       <c r="N120" s="5">
-        <f>IF(HOUR(C120) = 0, "", TIME(HOUR(C120),MINUTE(C120),0))</f>
+        <f t="shared" si="29"/>
         <v>0.57291666666666663</v>
       </c>
       <c r="O120" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46044</v>
       </c>
       <c r="P120" s="5">
-        <f>IF(HOUR(B120) = 0, "", TIME(HOUR(B120),MINUTE(B120),0))</f>
+        <f t="shared" si="30"/>
         <v>0.625</v>
       </c>
       <c r="R120" s="3" t="s">
@@ -8453,27 +8453,27 @@
         <v>0</v>
       </c>
       <c r="K121" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L121" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M121" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46048</v>
       </c>
       <c r="N121" s="5" t="str">
-        <f>IF(HOUR(C121) = 0, "", TIME(HOUR(C121),MINUTE(C121),0))</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O121" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46049</v>
       </c>
       <c r="P121" s="5" t="str">
-        <f>IF(HOUR(B121) = 0, "", TIME(HOUR(B121),MINUTE(B121),0))</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="R121" s="3" t="s">
@@ -8503,15 +8503,15 @@
         <v>1</v>
       </c>
       <c r="K122" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L122" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M122" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46048</v>
       </c>
       <c r="N122" s="5">
@@ -8531,10 +8531,10 @@
         <v>13</v>
       </c>
       <c r="S122" s="3">
+        <v>48</v>
+      </c>
+      <c r="T122" s="3">
         <v>24</v>
-      </c>
-      <c r="T122" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="123" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
@@ -8560,15 +8560,15 @@
         <v>0</v>
       </c>
       <c r="K123" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L123" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M123" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46048</v>
       </c>
       <c r="N123" s="5">
@@ -8576,7 +8576,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="O123" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46048</v>
       </c>
       <c r="P123" s="5">
@@ -8610,15 +8610,15 @@
         <v>0</v>
       </c>
       <c r="K124" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L124" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M124" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46049</v>
       </c>
       <c r="N124" s="5" t="str">
@@ -8626,7 +8626,7 @@
         <v/>
       </c>
       <c r="O124" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46050</v>
       </c>
       <c r="P124" s="5" t="str">
@@ -8660,15 +8660,15 @@
         <v>0</v>
       </c>
       <c r="K125" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L125" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M125" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46050</v>
       </c>
       <c r="N125" s="5" t="str">
@@ -8676,7 +8676,7 @@
         <v/>
       </c>
       <c r="O125" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46051</v>
       </c>
       <c r="P125" s="5" t="str">
@@ -8710,15 +8710,15 @@
         <v>0</v>
       </c>
       <c r="K126" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L126" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M126" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46050</v>
       </c>
       <c r="N126" s="5">
@@ -8726,7 +8726,7 @@
         <v>0.375</v>
       </c>
       <c r="O126" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46050</v>
       </c>
       <c r="P126" s="5">
@@ -8760,15 +8760,15 @@
         <v>0</v>
       </c>
       <c r="K127" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L127" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M127" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46051</v>
       </c>
       <c r="N127" s="5" t="str">
@@ -8776,7 +8776,7 @@
         <v/>
       </c>
       <c r="O127" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46052</v>
       </c>
       <c r="P127" s="5" t="str">
@@ -8810,15 +8810,15 @@
         <v>1</v>
       </c>
       <c r="K128" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L128" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M128" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46052</v>
       </c>
       <c r="N128" s="5">
@@ -8861,15 +8861,15 @@
         <v>0</v>
       </c>
       <c r="K129" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L129" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M129" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>46052</v>
       </c>
       <c r="N129" s="5" t="str">
@@ -8877,7 +8877,7 @@
         <v/>
       </c>
       <c r="O129" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>46053</v>
       </c>
       <c r="P129" s="5" t="str">
@@ -8911,15 +8911,15 @@
         <v>0</v>
       </c>
       <c r="K130" s="3">
-        <f t="shared" ref="K130:K193" si="13">WEEKDAY(C130,11)</f>
+        <f t="shared" ref="K130:K193" si="31">WEEKDAY(C130,11)</f>
         <v>5</v>
       </c>
       <c r="L130" s="3" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M130" s="4">
-        <f t="shared" ref="M130:M193" si="14">DATE(YEAR(C130),MONTH(C130),DAY(C130))</f>
+        <f t="shared" ref="M130:M193" si="32">DATE(YEAR(C130),MONTH(C130),DAY(C130))</f>
         <v>46052</v>
       </c>
       <c r="N130" s="5" t="str">
@@ -8927,7 +8927,7 @@
         <v/>
       </c>
       <c r="O130" s="4">
-        <f t="shared" ref="O130:O193" si="15">DATE(YEAR(B130),MONTH(B130),DAY(B130))</f>
+        <f t="shared" ref="O130:O192" si="33">DATE(YEAR(B130),MONTH(B130),DAY(B130))</f>
         <v>46053</v>
       </c>
       <c r="P130" s="5" t="str">
@@ -8961,15 +8961,15 @@
         <v>1</v>
       </c>
       <c r="K131" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L131" s="3" t="b">
-        <f t="shared" ref="L131:L194" si="16">IF(ISNUMBER(N131), FALSE, TRUE)</f>
+        <f t="shared" ref="L131:L194" si="34">IF(ISNUMBER(N131), FALSE, TRUE)</f>
         <v>0</v>
       </c>
       <c r="M131" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46052</v>
       </c>
       <c r="N131" s="5">
@@ -8977,7 +8977,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="O131" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46052</v>
       </c>
       <c r="P131" s="5">
@@ -9014,15 +9014,15 @@
         <v>1</v>
       </c>
       <c r="K132" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L132" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M132" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46052</v>
       </c>
       <c r="N132" s="5">
@@ -9030,7 +9030,7 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="O132" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46052</v>
       </c>
       <c r="P132" s="5">
@@ -9067,15 +9067,15 @@
         <v>0</v>
       </c>
       <c r="K133" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L133" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M133" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46055</v>
       </c>
       <c r="N133" s="5" t="str">
@@ -9083,7 +9083,7 @@
         <v/>
       </c>
       <c r="O133" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46056</v>
       </c>
       <c r="P133" s="5" t="str">
@@ -9117,15 +9117,15 @@
         <v>1</v>
       </c>
       <c r="K134" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L134" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M134" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46059</v>
       </c>
       <c r="N134" s="5">
@@ -9168,15 +9168,15 @@
         <v>0</v>
       </c>
       <c r="K135" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L135" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M135" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46059</v>
       </c>
       <c r="N135" s="5" t="str">
@@ -9184,7 +9184,7 @@
         <v/>
       </c>
       <c r="O135" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46060</v>
       </c>
       <c r="P135" s="5" t="str">
@@ -9218,20 +9218,20 @@
         <v>0</v>
       </c>
       <c r="K136" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L136" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M136" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46062</v>
       </c>
       <c r="N136" s="5"/>
       <c r="O136" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46063</v>
       </c>
       <c r="P136" s="5" t="str">
@@ -9265,15 +9265,15 @@
         <v>1</v>
       </c>
       <c r="K137" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L137" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M137" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46062</v>
       </c>
       <c r="N137" s="5">
@@ -9293,10 +9293,10 @@
         <v>13</v>
       </c>
       <c r="S137" s="3">
+        <v>48</v>
+      </c>
+      <c r="T137" s="3">
         <v>24</v>
-      </c>
-      <c r="T137" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="138" spans="2:20" x14ac:dyDescent="0.25">
@@ -9322,15 +9322,15 @@
         <v>1</v>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="L138" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M138" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46063</v>
       </c>
       <c r="N138" s="5">
@@ -9338,7 +9338,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="O138" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46063</v>
       </c>
       <c r="P138" s="5">
@@ -9375,15 +9375,15 @@
         <v>1</v>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L139" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M139" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46065</v>
       </c>
       <c r="N139" s="5">
@@ -9426,27 +9426,27 @@
         <v>0</v>
       </c>
       <c r="K140" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L140" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M140" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46065</v>
       </c>
       <c r="N140" s="5" t="str">
-        <f>IF(HOUR(C140) = 0, "", TIME(HOUR(C140),MINUTE(C140),0))</f>
+        <f t="shared" ref="N140:N148" si="35">IF(HOUR(C140) = 0, "", TIME(HOUR(C140),MINUTE(C140),0))</f>
         <v/>
       </c>
       <c r="O140" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46066</v>
       </c>
       <c r="P140" s="5" t="str">
-        <f>IF(HOUR(B140) = 0, "", TIME(HOUR(B140),MINUTE(B140),0))</f>
+        <f t="shared" ref="P140:P148" si="36">IF(HOUR(B140) = 0, "", TIME(HOUR(B140),MINUTE(B140),0))</f>
         <v/>
       </c>
       <c r="R140" s="3" t="s">
@@ -9476,27 +9476,27 @@
         <v>1</v>
       </c>
       <c r="K141" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L141" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M141" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46065</v>
       </c>
       <c r="N141" s="5">
-        <f>IF(HOUR(C141) = 0, "", TIME(HOUR(C141),MINUTE(C141),0))</f>
+        <f t="shared" si="35"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="O141" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46065</v>
       </c>
       <c r="P141" s="5">
-        <f>IF(HOUR(B141) = 0, "", TIME(HOUR(B141),MINUTE(B141),0))</f>
+        <f t="shared" si="36"/>
         <v>0.5</v>
       </c>
       <c r="Q141" s="3" t="s">
@@ -9529,19 +9529,19 @@
         <v>1</v>
       </c>
       <c r="K142" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L142" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M142" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46066</v>
       </c>
       <c r="N142" s="5" t="str">
-        <f>IF(HOUR(C142) = 0, "", TIME(HOUR(C142),MINUTE(C142),0))</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O142" s="6">
@@ -9549,7 +9549,7 @@
         <v>46067</v>
       </c>
       <c r="P142" s="5" t="str">
-        <f>IF(HOUR(B142) = 0, "", TIME(HOUR(B142),MINUTE(B142),0))</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="Q142" s="3" t="s">
@@ -9582,27 +9582,27 @@
         <v>0</v>
       </c>
       <c r="K143" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L143" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M143" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46066</v>
       </c>
       <c r="N143" s="5" t="str">
-        <f>IF(HOUR(C143) = 0, "", TIME(HOUR(C143),MINUTE(C143),0))</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O143" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46067</v>
       </c>
       <c r="P143" s="5" t="str">
-        <f>IF(HOUR(B143) = 0, "", TIME(HOUR(B143),MINUTE(B143),0))</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="R143" s="3" t="s">
@@ -9632,27 +9632,27 @@
         <v>1</v>
       </c>
       <c r="K144" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L144" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M144" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46066</v>
       </c>
       <c r="N144" s="5">
-        <f>IF(HOUR(C144) = 0, "", TIME(HOUR(C144),MINUTE(C144),0))</f>
+        <f t="shared" si="35"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="O144" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46066</v>
       </c>
       <c r="P144" s="5">
-        <f>IF(HOUR(B144) = 0, "", TIME(HOUR(B144),MINUTE(B144),0))</f>
+        <f t="shared" si="36"/>
         <v>0.5</v>
       </c>
       <c r="Q144" s="3" t="s">
@@ -9685,27 +9685,27 @@
         <v>1</v>
       </c>
       <c r="K145" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L145" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M145" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46066</v>
       </c>
       <c r="N145" s="5">
-        <f>IF(HOUR(C145) = 0, "", TIME(HOUR(C145),MINUTE(C145),0))</f>
+        <f t="shared" si="35"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="O145" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46066</v>
       </c>
       <c r="P145" s="5">
-        <f>IF(HOUR(B145) = 0, "", TIME(HOUR(B145),MINUTE(B145),0))</f>
+        <f t="shared" si="36"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q145" s="3" t="s">
@@ -9738,19 +9738,19 @@
         <v>1</v>
       </c>
       <c r="K146" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L146" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M146" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46069</v>
       </c>
       <c r="N146" s="5" t="str">
-        <f>IF(HOUR(C146) = 0, "", TIME(HOUR(C146),MINUTE(C146),0))</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O146" s="6">
@@ -9758,7 +9758,7 @@
         <v>46070</v>
       </c>
       <c r="P146" s="5" t="str">
-        <f>IF(HOUR(B146) = 0, "", TIME(HOUR(B146),MINUTE(B146),0))</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="Q146" s="3" t="s">
@@ -9791,27 +9791,27 @@
         <v>0</v>
       </c>
       <c r="K147" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="L147" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M147" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46071</v>
       </c>
       <c r="N147" s="5">
-        <f>IF(HOUR(C147) = 0, "", TIME(HOUR(C147),MINUTE(C147),0))</f>
+        <f t="shared" si="35"/>
         <v>0.34375</v>
       </c>
       <c r="O147" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46071</v>
       </c>
       <c r="P147" s="5">
-        <f>IF(HOUR(B147) = 0, "", TIME(HOUR(B147),MINUTE(B147),0))</f>
+        <f t="shared" si="36"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="R147" s="3" t="s">
@@ -9841,27 +9841,27 @@
         <v>0</v>
       </c>
       <c r="K148" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L148" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M148" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46072</v>
       </c>
       <c r="N148" s="5">
-        <f>IF(HOUR(C148) = 0, "", TIME(HOUR(C148),MINUTE(C148),0))</f>
+        <f t="shared" si="35"/>
         <v>0.375</v>
       </c>
       <c r="O148" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46072</v>
       </c>
       <c r="P148" s="5">
-        <f>IF(HOUR(B148) = 0, "", TIME(HOUR(B148),MINUTE(B148),0))</f>
+        <f t="shared" si="36"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="R148" s="3" t="s">
@@ -9891,15 +9891,15 @@
         <v>1</v>
       </c>
       <c r="K149" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L149" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M149" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46076</v>
       </c>
       <c r="N149" s="5">
@@ -9919,10 +9919,10 @@
         <v>13</v>
       </c>
       <c r="S149" s="3">
+        <v>48</v>
+      </c>
+      <c r="T149" s="3">
         <v>24</v>
-      </c>
-      <c r="T149" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="150" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
@@ -9948,15 +9948,15 @@
         <v>0</v>
       </c>
       <c r="K150" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L150" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M150" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46080</v>
       </c>
       <c r="N150" s="5">
@@ -9964,7 +9964,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="O150" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46080</v>
       </c>
       <c r="P150" s="5">
@@ -9998,22 +9998,22 @@
         <v>1</v>
       </c>
       <c r="K151" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L151" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M151" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46080</v>
       </c>
       <c r="N151" s="5">
         <v>0.47916666666666669</v>
       </c>
       <c r="O151" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46080</v>
       </c>
       <c r="P151" s="5">
@@ -10049,15 +10049,15 @@
         <v>1</v>
       </c>
       <c r="K152" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="L152" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M152" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46084</v>
       </c>
       <c r="N152" s="5">
@@ -10065,7 +10065,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="O152" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46084</v>
       </c>
       <c r="P152" s="5">
@@ -10102,15 +10102,15 @@
         <v>1</v>
       </c>
       <c r="K153" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L153" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M153" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46087</v>
       </c>
       <c r="N153" s="5">
@@ -10153,15 +10153,15 @@
         <v>0</v>
       </c>
       <c r="K154" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L154" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M154" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46087</v>
       </c>
       <c r="N154" s="5" t="str">
@@ -10169,7 +10169,7 @@
         <v/>
       </c>
       <c r="O154" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46088</v>
       </c>
       <c r="P154" s="5" t="str">
@@ -10203,15 +10203,15 @@
         <v>1</v>
       </c>
       <c r="K155" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L155" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M155" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46090</v>
       </c>
       <c r="N155" s="5">
@@ -10231,10 +10231,10 @@
         <v>13</v>
       </c>
       <c r="S155" s="3">
+        <v>48</v>
+      </c>
+      <c r="T155" s="3">
         <v>24</v>
-      </c>
-      <c r="T155" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="156" spans="2:20" x14ac:dyDescent="0.25">
@@ -10260,27 +10260,27 @@
         <v>1</v>
       </c>
       <c r="K156" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="L156" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M156" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46091</v>
       </c>
       <c r="N156" s="5">
-        <f>IF(HOUR(C156) = 0, "", TIME(HOUR(C156),MINUTE(C156),0))</f>
+        <f t="shared" ref="N156:N170" si="37">IF(HOUR(C156) = 0, "", TIME(HOUR(C156),MINUTE(C156),0))</f>
         <v>0.70833333333333337</v>
       </c>
       <c r="O156" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46091</v>
       </c>
       <c r="P156" s="5">
-        <f>IF(HOUR(B156) = 0, "", TIME(HOUR(B156),MINUTE(B156),0))</f>
+        <f t="shared" ref="P156:P170" si="38">IF(HOUR(B156) = 0, "", TIME(HOUR(B156),MINUTE(B156),0))</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="Q156" s="3" t="s">
@@ -10313,27 +10313,27 @@
         <v>1</v>
       </c>
       <c r="K157" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="L157" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M157" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46091</v>
       </c>
       <c r="N157" s="5">
-        <f>IF(HOUR(C157) = 0, "", TIME(HOUR(C157),MINUTE(C157),0))</f>
+        <f t="shared" si="37"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="O157" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46091</v>
       </c>
       <c r="P157" s="5">
-        <f>IF(HOUR(B157) = 0, "", TIME(HOUR(B157),MINUTE(B157),0))</f>
+        <f t="shared" si="38"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="Q157" s="3" t="s">
@@ -10366,27 +10366,27 @@
         <v>0</v>
       </c>
       <c r="K158" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="L158" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M158" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46092</v>
       </c>
       <c r="N158" s="5">
-        <f>IF(HOUR(C158) = 0, "", TIME(HOUR(C158),MINUTE(C158),0))</f>
+        <f t="shared" si="37"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="O158" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46092</v>
       </c>
       <c r="P158" s="5">
-        <f>IF(HOUR(B158) = 0, "", TIME(HOUR(B158),MINUTE(B158),0))</f>
+        <f t="shared" si="38"/>
         <v>0.42708333333333331</v>
       </c>
       <c r="R158" s="3" t="s">
@@ -10416,27 +10416,27 @@
         <v>0</v>
       </c>
       <c r="K159" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L159" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M159" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46093</v>
       </c>
       <c r="N159" s="5" t="str">
-        <f>IF(HOUR(C159) = 0, "", TIME(HOUR(C159),MINUTE(C159),0))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O159" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46094</v>
       </c>
       <c r="P159" s="5" t="str">
-        <f>IF(HOUR(B159) = 0, "", TIME(HOUR(B159),MINUTE(B159),0))</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="R159" s="3" t="s">
@@ -10466,19 +10466,19 @@
         <v>1</v>
       </c>
       <c r="K160" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L160" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M160" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46093</v>
       </c>
       <c r="N160" s="5" t="str">
-        <f>IF(HOUR(C160) = 0, "", TIME(HOUR(C160),MINUTE(C160),0))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O160" s="6">
@@ -10486,7 +10486,7 @@
         <v>46094</v>
       </c>
       <c r="P160" s="5" t="str">
-        <f>IF(HOUR(B160) = 0, "", TIME(HOUR(B160),MINUTE(B160),0))</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q160" s="3" t="s">
@@ -10519,27 +10519,27 @@
         <v>0</v>
       </c>
       <c r="K161" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L161" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M161" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46093</v>
       </c>
       <c r="N161" s="5">
-        <f>IF(HOUR(C161) = 0, "", TIME(HOUR(C161),MINUTE(C161),0))</f>
+        <f t="shared" si="37"/>
         <v>0.75</v>
       </c>
       <c r="O161" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46093</v>
       </c>
       <c r="P161" s="5">
-        <f>IF(HOUR(B161) = 0, "", TIME(HOUR(B161),MINUTE(B161),0))</f>
+        <f t="shared" si="38"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="R161" s="3" t="s">
@@ -10569,19 +10569,19 @@
         <v>1</v>
       </c>
       <c r="K162" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L162" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M162" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46094</v>
       </c>
       <c r="N162" s="5" t="str">
-        <f>IF(HOUR(C162) = 0, "", TIME(HOUR(C162),MINUTE(C162),0))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O162" s="6">
@@ -10589,7 +10589,7 @@
         <v>46095</v>
       </c>
       <c r="P162" s="5" t="str">
-        <f>IF(HOUR(B162) = 0, "", TIME(HOUR(B162),MINUTE(B162),0))</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q162" s="3" t="s">
@@ -10622,27 +10622,27 @@
         <v>0</v>
       </c>
       <c r="K163" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L163" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M163" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46094</v>
       </c>
       <c r="N163" s="5" t="str">
-        <f>IF(HOUR(C163) = 0, "", TIME(HOUR(C163),MINUTE(C163),0))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O163" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46095</v>
       </c>
       <c r="P163" s="5" t="str">
-        <f>IF(HOUR(B163) = 0, "", TIME(HOUR(B163),MINUTE(B163),0))</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="R163" s="3" t="s">
@@ -10672,27 +10672,27 @@
         <v>0</v>
       </c>
       <c r="K164" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L164" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M164" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46094</v>
       </c>
       <c r="N164" s="5">
-        <f>IF(HOUR(C164) = 0, "", TIME(HOUR(C164),MINUTE(C164),0))</f>
+        <f t="shared" si="37"/>
         <v>0.47916666666666669</v>
       </c>
       <c r="O164" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46094</v>
       </c>
       <c r="P164" s="5">
-        <f>IF(HOUR(B164) = 0, "", TIME(HOUR(B164),MINUTE(B164),0))</f>
+        <f t="shared" si="38"/>
         <v>0.52083333333333337</v>
       </c>
       <c r="R164" s="3" t="s">
@@ -10722,27 +10722,27 @@
         <v>0</v>
       </c>
       <c r="K165" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L165" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M165" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46094</v>
       </c>
       <c r="N165" s="5">
-        <f>IF(HOUR(C165) = 0, "", TIME(HOUR(C165),MINUTE(C165),0))</f>
+        <f t="shared" si="37"/>
         <v>0.48958333333333331</v>
       </c>
       <c r="O165" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46094</v>
       </c>
       <c r="P165" s="5">
-        <f>IF(HOUR(B165) = 0, "", TIME(HOUR(B165),MINUTE(B165),0))</f>
+        <f t="shared" si="38"/>
         <v>0.53125</v>
       </c>
       <c r="R165" s="3" t="s">
@@ -10772,27 +10772,27 @@
         <v>1</v>
       </c>
       <c r="K166" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L166" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M166" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46097</v>
       </c>
       <c r="N166" s="5" t="str">
-        <f>IF(HOUR(C166) = 0, "", TIME(HOUR(C166),MINUTE(C166),0))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O166" s="6">
-        <f t="shared" ref="O166:O170" si="17">B166</f>
+        <f t="shared" ref="O166:O170" si="39">B166</f>
         <v>46098</v>
       </c>
       <c r="P166" s="5" t="str">
-        <f>IF(HOUR(B166) = 0, "", TIME(HOUR(B166),MINUTE(B166),0))</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q166" s="3" t="s">
@@ -10825,27 +10825,27 @@
         <v>1</v>
       </c>
       <c r="K167" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="L167" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M167" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46098</v>
       </c>
       <c r="N167" s="5" t="str">
-        <f>IF(HOUR(C167) = 0, "", TIME(HOUR(C167),MINUTE(C167),0))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O167" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="39"/>
         <v>46099</v>
       </c>
       <c r="P167" s="5" t="str">
-        <f>IF(HOUR(B167) = 0, "", TIME(HOUR(B167),MINUTE(B167),0))</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q167" s="3" t="s">
@@ -10878,27 +10878,27 @@
         <v>1</v>
       </c>
       <c r="K168" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="L168" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M168" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46099</v>
       </c>
       <c r="N168" s="5" t="str">
-        <f>IF(HOUR(C168) = 0, "", TIME(HOUR(C168),MINUTE(C168),0))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O168" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="39"/>
         <v>46100</v>
       </c>
       <c r="P168" s="5" t="str">
-        <f>IF(HOUR(B168) = 0, "", TIME(HOUR(B168),MINUTE(B168),0))</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q168" s="3" t="s">
@@ -10931,27 +10931,27 @@
         <v>1</v>
       </c>
       <c r="K169" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L169" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M169" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46100</v>
       </c>
       <c r="N169" s="5" t="str">
-        <f>IF(HOUR(C169) = 0, "", TIME(HOUR(C169),MINUTE(C169),0))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O169" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="39"/>
         <v>46101</v>
       </c>
       <c r="P169" s="5" t="str">
-        <f>IF(HOUR(B169) = 0, "", TIME(HOUR(B169),MINUTE(B169),0))</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q169" s="3" t="s">
@@ -10984,27 +10984,27 @@
         <v>1</v>
       </c>
       <c r="K170" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L170" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M170" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46101</v>
       </c>
       <c r="N170" s="5" t="str">
-        <f>IF(HOUR(C170) = 0, "", TIME(HOUR(C170),MINUTE(C170),0))</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O170" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="39"/>
         <v>46102</v>
       </c>
       <c r="P170" s="5" t="str">
-        <f>IF(HOUR(B170) = 0, "", TIME(HOUR(B170),MINUTE(B170),0))</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q170" s="3" t="s">
@@ -11037,15 +11037,15 @@
         <v>1</v>
       </c>
       <c r="K171" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L171" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M171" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46104</v>
       </c>
       <c r="N171" s="5">
@@ -11088,15 +11088,15 @@
         <v>1</v>
       </c>
       <c r="K172" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L172" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M172" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46104</v>
       </c>
       <c r="N172" s="5">
@@ -11116,10 +11116,10 @@
         <v>13</v>
       </c>
       <c r="S172" s="3">
+        <v>48</v>
+      </c>
+      <c r="T172" s="3">
         <v>24</v>
-      </c>
-      <c r="T172" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="173" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
@@ -11145,27 +11145,27 @@
         <v>0</v>
       </c>
       <c r="K173" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L173" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M173" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46107</v>
       </c>
       <c r="N173" s="5" t="str">
-        <f>IF(HOUR(C173) = 0, "", TIME(HOUR(C173),MINUTE(C173),0))</f>
+        <f t="shared" ref="N173:N178" si="40">IF(HOUR(C173) = 0, "", TIME(HOUR(C173),MINUTE(C173),0))</f>
         <v/>
       </c>
       <c r="O173" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46108</v>
       </c>
       <c r="P173" s="5" t="str">
-        <f>IF(HOUR(B173) = 0, "", TIME(HOUR(B173),MINUTE(B173),0))</f>
+        <f t="shared" ref="P173:P178" si="41">IF(HOUR(B173) = 0, "", TIME(HOUR(B173),MINUTE(B173),0))</f>
         <v/>
       </c>
       <c r="R173" s="3" t="s">
@@ -11195,27 +11195,27 @@
         <v>0</v>
       </c>
       <c r="K174" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L174" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M174" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46108</v>
       </c>
       <c r="N174" s="5" t="str">
-        <f>IF(HOUR(C174) = 0, "", TIME(HOUR(C174),MINUTE(C174),0))</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O174" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46109</v>
       </c>
       <c r="P174" s="5" t="str">
-        <f>IF(HOUR(B174) = 0, "", TIME(HOUR(B174),MINUTE(B174),0))</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="R174" s="3" t="s">
@@ -11245,27 +11245,27 @@
         <v>1</v>
       </c>
       <c r="K175" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L175" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M175" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46114</v>
       </c>
       <c r="N175" s="5" t="str">
-        <f>IF(HOUR(C175) = 0, "", TIME(HOUR(C175),MINUTE(C175),0))</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O175" s="6">
-        <f t="shared" ref="O175:O176" si="18">B175</f>
+        <f t="shared" ref="O175:O176" si="42">B175</f>
         <v>46115</v>
       </c>
       <c r="P175" s="5" t="str">
-        <f>IF(HOUR(B175) = 0, "", TIME(HOUR(B175),MINUTE(B175),0))</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q175" s="3" t="s">
@@ -11298,27 +11298,27 @@
         <v>1</v>
       </c>
       <c r="K176" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L176" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M176" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46115</v>
       </c>
       <c r="N176" s="5" t="str">
-        <f>IF(HOUR(C176) = 0, "", TIME(HOUR(C176),MINUTE(C176),0))</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O176" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>46116</v>
       </c>
       <c r="P176" s="5" t="str">
-        <f>IF(HOUR(B176) = 0, "", TIME(HOUR(B176),MINUTE(B176),0))</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q176" s="3" t="s">
@@ -11351,27 +11351,27 @@
         <v>0</v>
       </c>
       <c r="K177" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="L177" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M177" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46116</v>
       </c>
       <c r="N177" s="5">
-        <f>IF(HOUR(C177) = 0, "", TIME(HOUR(C177),MINUTE(C177),0))</f>
+        <f t="shared" si="40"/>
         <v>0.85416666666666663</v>
       </c>
       <c r="O177" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46116</v>
       </c>
       <c r="P177" s="5">
-        <f>IF(HOUR(B177) = 0, "", TIME(HOUR(B177),MINUTE(B177),0))</f>
+        <f t="shared" si="41"/>
         <v>0.9375</v>
       </c>
       <c r="R177" s="3" t="s">
@@ -11401,19 +11401,19 @@
         <v>1</v>
       </c>
       <c r="K178" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L178" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M178" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46118</v>
       </c>
       <c r="N178" s="5" t="str">
-        <f>IF(HOUR(C178) = 0, "", TIME(HOUR(C178),MINUTE(C178),0))</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O178" s="6">
@@ -11421,7 +11421,7 @@
         <v>46119</v>
       </c>
       <c r="P178" s="5" t="str">
-        <f>IF(HOUR(B178) = 0, "", TIME(HOUR(B178),MINUTE(B178),0))</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q178" s="3" t="s">
@@ -11454,15 +11454,15 @@
         <v>1</v>
       </c>
       <c r="K179" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L179" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M179" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46122</v>
       </c>
       <c r="N179" s="5">
@@ -11505,15 +11505,15 @@
         <v>0</v>
       </c>
       <c r="K180" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L180" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M180" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46122</v>
       </c>
       <c r="N180" s="5" t="str">
@@ -11521,7 +11521,7 @@
         <v/>
       </c>
       <c r="O180" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46123</v>
       </c>
       <c r="P180" s="5" t="str">
@@ -11555,15 +11555,15 @@
         <v>1</v>
       </c>
       <c r="K181" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L181" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M181" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46122</v>
       </c>
       <c r="N181" s="5">
@@ -11571,7 +11571,7 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="O181" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46122</v>
       </c>
       <c r="P181" s="5">
@@ -11607,15 +11607,15 @@
         <v>0</v>
       </c>
       <c r="K182" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L182" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M182" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46122</v>
       </c>
       <c r="N182" s="5">
@@ -11623,7 +11623,7 @@
         <v>0.5625</v>
       </c>
       <c r="O182" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46122</v>
       </c>
       <c r="P182" s="5">
@@ -11657,15 +11657,15 @@
         <v>1</v>
       </c>
       <c r="K183" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L183" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M183" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46125</v>
       </c>
       <c r="N183" s="5">
@@ -11685,10 +11685,10 @@
         <v>13</v>
       </c>
       <c r="S183" s="3">
+        <v>48</v>
+      </c>
+      <c r="T183" s="3">
         <v>24</v>
-      </c>
-      <c r="T183" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="184" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
@@ -11714,27 +11714,27 @@
         <v>0</v>
       </c>
       <c r="K184" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="L184" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M184" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46126</v>
       </c>
       <c r="N184" s="5">
-        <f>IF(HOUR(C184) = 0, "", TIME(HOUR(C184),MINUTE(C184),0))</f>
+        <f t="shared" ref="N184:N192" si="43">IF(HOUR(C184) = 0, "", TIME(HOUR(C184),MINUTE(C184),0))</f>
         <v>0.4375</v>
       </c>
       <c r="O184" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46126</v>
       </c>
       <c r="P184" s="5">
-        <f>IF(HOUR(B184) = 0, "", TIME(HOUR(B184),MINUTE(B184),0))</f>
+        <f t="shared" ref="P184:P192" si="44">IF(HOUR(B184) = 0, "", TIME(HOUR(B184),MINUTE(B184),0))</f>
         <v>0.47916666666666669</v>
       </c>
       <c r="R184" s="3" t="s">
@@ -11764,27 +11764,27 @@
         <v>1</v>
       </c>
       <c r="K185" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="L185" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M185" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46126</v>
       </c>
       <c r="N185" s="5">
-        <f>IF(HOUR(C185) = 0, "", TIME(HOUR(C185),MINUTE(C185),0))</f>
+        <f t="shared" si="43"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="O185" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46126</v>
       </c>
       <c r="P185" s="5">
-        <f>IF(HOUR(B185) = 0, "", TIME(HOUR(B185),MINUTE(B185),0))</f>
+        <f t="shared" si="44"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="Q185" s="3" t="s">
@@ -11817,27 +11817,27 @@
         <v>0</v>
       </c>
       <c r="K186" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="L186" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M186" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46131</v>
       </c>
       <c r="N186" s="5">
-        <f>IF(HOUR(C186) = 0, "", TIME(HOUR(C186),MINUTE(C186),0))</f>
+        <f t="shared" si="43"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="O186" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46131</v>
       </c>
       <c r="P186" s="5">
-        <f>IF(HOUR(B186) = 0, "", TIME(HOUR(B186),MINUTE(B186),0))</f>
+        <f t="shared" si="44"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="R186" s="3" t="s">
@@ -11867,27 +11867,27 @@
         <v>0</v>
       </c>
       <c r="K187" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="L187" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M187" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46134</v>
       </c>
       <c r="N187" s="5">
-        <f>IF(HOUR(C187) = 0, "", TIME(HOUR(C187),MINUTE(C187),0))</f>
+        <f t="shared" si="43"/>
         <v>0.5625</v>
       </c>
       <c r="O187" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46134</v>
       </c>
       <c r="P187" s="5">
-        <f>IF(HOUR(B187) = 0, "", TIME(HOUR(B187),MINUTE(B187),0))</f>
+        <f t="shared" si="44"/>
         <v>0.60416666666666663</v>
       </c>
       <c r="R187" s="3" t="s">
@@ -11917,27 +11917,27 @@
         <v>0</v>
       </c>
       <c r="K188" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="L188" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M188" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46134</v>
       </c>
       <c r="N188" s="5">
-        <f>IF(HOUR(C188) = 0, "", TIME(HOUR(C188),MINUTE(C188),0))</f>
+        <f t="shared" si="43"/>
         <v>0.77083333333333337</v>
       </c>
       <c r="O188" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46134</v>
       </c>
       <c r="P188" s="5">
-        <f>IF(HOUR(B188) = 0, "", TIME(HOUR(B188),MINUTE(B188),0))</f>
+        <f t="shared" si="44"/>
         <v>0.8125</v>
       </c>
       <c r="R188" s="3" t="s">
@@ -11967,27 +11967,27 @@
         <v>0</v>
       </c>
       <c r="K189" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L189" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M189" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46135</v>
       </c>
       <c r="N189" s="5" t="str">
-        <f>IF(HOUR(C189) = 0, "", TIME(HOUR(C189),MINUTE(C189),0))</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O189" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46136</v>
       </c>
       <c r="P189" s="5" t="str">
-        <f>IF(HOUR(B189) = 0, "", TIME(HOUR(B189),MINUTE(B189),0))</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R189" s="3" t="s">
@@ -12017,27 +12017,27 @@
         <v>0</v>
       </c>
       <c r="K190" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="L190" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M190" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46135</v>
       </c>
       <c r="N190" s="5">
-        <f>IF(HOUR(C190) = 0, "", TIME(HOUR(C190),MINUTE(C190),0))</f>
+        <f t="shared" si="43"/>
         <v>0.375</v>
       </c>
       <c r="O190" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46135</v>
       </c>
       <c r="P190" s="5">
-        <f>IF(HOUR(B190) = 0, "", TIME(HOUR(B190),MINUTE(B190),0))</f>
+        <f t="shared" si="44"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="R190" s="3" t="s">
@@ -12067,19 +12067,19 @@
         <v>1</v>
       </c>
       <c r="K191" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L191" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M191" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46136</v>
       </c>
       <c r="N191" s="5" t="str">
-        <f>IF(HOUR(C191) = 0, "", TIME(HOUR(C191),MINUTE(C191),0))</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O191" s="6">
@@ -12087,7 +12087,7 @@
         <v>46137</v>
       </c>
       <c r="P191" s="5" t="str">
-        <f>IF(HOUR(B191) = 0, "", TIME(HOUR(B191),MINUTE(B191),0))</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="Q191" s="3" t="s">
@@ -12120,27 +12120,27 @@
         <v>0</v>
       </c>
       <c r="K192" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="L192" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M192" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46136</v>
       </c>
       <c r="N192" s="5" t="str">
-        <f>IF(HOUR(C192) = 0, "", TIME(HOUR(C192),MINUTE(C192),0))</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O192" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="33"/>
         <v>46137</v>
       </c>
       <c r="P192" s="5" t="str">
-        <f>IF(HOUR(B192) = 0, "", TIME(HOUR(B192),MINUTE(B192),0))</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="R192" s="3" t="s">
@@ -12170,15 +12170,15 @@
         <v>1</v>
       </c>
       <c r="K193" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L193" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M193" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="32"/>
         <v>46139</v>
       </c>
       <c r="N193" s="5">
@@ -12198,10 +12198,10 @@
         <v>13</v>
       </c>
       <c r="S193" s="3">
+        <v>48</v>
+      </c>
+      <c r="T193" s="3">
         <v>24</v>
-      </c>
-      <c r="T193" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="194" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
@@ -12227,27 +12227,27 @@
         <v>0</v>
       </c>
       <c r="K194" s="3">
-        <f t="shared" ref="K194:K212" si="19">WEEKDAY(C194,11)</f>
+        <f t="shared" ref="K194:K212" si="45">WEEKDAY(C194,11)</f>
         <v>4</v>
       </c>
       <c r="L194" s="3" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M194" s="4">
-        <f t="shared" ref="M194:M212" si="20">DATE(YEAR(C194),MONTH(C194),DAY(C194))</f>
+        <f t="shared" ref="M194:M212" si="46">DATE(YEAR(C194),MONTH(C194),DAY(C194))</f>
         <v>46142</v>
       </c>
       <c r="N194" s="5" t="str">
-        <f>IF(HOUR(C194) = 0, "", TIME(HOUR(C194),MINUTE(C194),0))</f>
+        <f t="shared" ref="N194:N204" si="47">IF(HOUR(C194) = 0, "", TIME(HOUR(C194),MINUTE(C194),0))</f>
         <v/>
       </c>
       <c r="O194" s="4">
-        <f t="shared" ref="O194:O212" si="21">DATE(YEAR(B194),MONTH(B194),DAY(B194))</f>
+        <f t="shared" ref="O194:O212" si="48">DATE(YEAR(B194),MONTH(B194),DAY(B194))</f>
         <v>46143</v>
       </c>
       <c r="P194" s="5" t="str">
-        <f>IF(HOUR(B194) = 0, "", TIME(HOUR(B194),MINUTE(B194),0))</f>
+        <f t="shared" ref="P194:P204" si="49">IF(HOUR(B194) = 0, "", TIME(HOUR(B194),MINUTE(B194),0))</f>
         <v/>
       </c>
       <c r="R194" s="3" t="s">
@@ -12277,27 +12277,27 @@
         <v>0</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="L195" s="3" t="b">
-        <f t="shared" ref="L195:L212" si="22">IF(ISNUMBER(N195), FALSE, TRUE)</f>
+        <f t="shared" ref="L195:L212" si="50">IF(ISNUMBER(N195), FALSE, TRUE)</f>
         <v>0</v>
       </c>
       <c r="M195" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46143</v>
       </c>
       <c r="N195" s="5">
-        <f>IF(HOUR(C195) = 0, "", TIME(HOUR(C195),MINUTE(C195),0))</f>
+        <f t="shared" si="47"/>
         <v>0.375</v>
       </c>
       <c r="O195" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46143</v>
       </c>
       <c r="P195" s="5">
-        <f>IF(HOUR(B195) = 0, "", TIME(HOUR(B195),MINUTE(B195),0))</f>
+        <f t="shared" si="49"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="R195" s="3" t="s">
@@ -12327,27 +12327,27 @@
         <v>0</v>
       </c>
       <c r="K196" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="L196" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M196" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46146</v>
       </c>
       <c r="N196" s="5" t="str">
-        <f>IF(HOUR(C196) = 0, "", TIME(HOUR(C196),MINUTE(C196),0))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O196" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46147</v>
       </c>
       <c r="P196" s="5" t="str">
-        <f>IF(HOUR(B196) = 0, "", TIME(HOUR(B196),MINUTE(B196),0))</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="R196" s="3" t="s">
@@ -12377,27 +12377,27 @@
         <v>0</v>
       </c>
       <c r="K197" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="L197" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M197" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46147</v>
       </c>
       <c r="N197" s="5" t="str">
-        <f>IF(HOUR(C197) = 0, "", TIME(HOUR(C197),MINUTE(C197),0))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O197" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46148</v>
       </c>
       <c r="P197" s="5" t="str">
-        <f>IF(HOUR(B197) = 0, "", TIME(HOUR(B197),MINUTE(B197),0))</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="R197" s="3" t="s">
@@ -12427,27 +12427,27 @@
         <v>0</v>
       </c>
       <c r="K198" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="L198" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M198" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46147</v>
       </c>
       <c r="N198" s="5">
-        <f>IF(HOUR(C198) = 0, "", TIME(HOUR(C198),MINUTE(C198),0))</f>
+        <f t="shared" si="47"/>
         <v>0.39583333333333331</v>
       </c>
       <c r="O198" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46147</v>
       </c>
       <c r="P198" s="5">
-        <f>IF(HOUR(B198) = 0, "", TIME(HOUR(B198),MINUTE(B198),0))</f>
+        <f t="shared" si="49"/>
         <v>0.4375</v>
       </c>
       <c r="R198" s="3" t="s">
@@ -12477,27 +12477,27 @@
         <v>0</v>
       </c>
       <c r="K199" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="L199" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M199" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46148</v>
       </c>
       <c r="N199" s="5" t="str">
-        <f>IF(HOUR(C199) = 0, "", TIME(HOUR(C199),MINUTE(C199),0))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O199" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46149</v>
       </c>
       <c r="P199" s="5" t="str">
-        <f>IF(HOUR(B199) = 0, "", TIME(HOUR(B199),MINUTE(B199),0))</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="R199" s="3" t="s">
@@ -12527,27 +12527,27 @@
         <v>0</v>
       </c>
       <c r="K200" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="L200" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M200" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46148</v>
       </c>
       <c r="N200" s="5">
-        <f>IF(HOUR(C200) = 0, "", TIME(HOUR(C200),MINUTE(C200),0))</f>
+        <f t="shared" si="47"/>
         <v>0.38541666666666669</v>
       </c>
       <c r="O200" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46148</v>
       </c>
       <c r="P200" s="5">
-        <f>IF(HOUR(B200) = 0, "", TIME(HOUR(B200),MINUTE(B200),0))</f>
+        <f t="shared" si="49"/>
         <v>0.42708333333333331</v>
       </c>
       <c r="R200" s="3" t="s">
@@ -12577,27 +12577,27 @@
         <v>0</v>
       </c>
       <c r="K201" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>4</v>
       </c>
       <c r="L201" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M201" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46149</v>
       </c>
       <c r="N201" s="5" t="str">
-        <f>IF(HOUR(C201) = 0, "", TIME(HOUR(C201),MINUTE(C201),0))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O201" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46150</v>
       </c>
       <c r="P201" s="5" t="str">
-        <f>IF(HOUR(B201) = 0, "", TIME(HOUR(B201),MINUTE(B201),0))</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="R201" s="3" t="s">
@@ -12627,27 +12627,27 @@
         <v>0</v>
       </c>
       <c r="K202" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>4</v>
       </c>
       <c r="L202" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M202" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46149</v>
       </c>
       <c r="N202" s="5" t="str">
-        <f>IF(HOUR(C202) = 0, "", TIME(HOUR(C202),MINUTE(C202),0))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O202" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46150</v>
       </c>
       <c r="P202" s="5" t="str">
-        <f>IF(HOUR(B202) = 0, "", TIME(HOUR(B202),MINUTE(B202),0))</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="R202" s="3" t="s">
@@ -12677,27 +12677,27 @@
         <v>0</v>
       </c>
       <c r="K203" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="L203" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M203" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46150</v>
       </c>
       <c r="N203" s="5" t="str">
-        <f>IF(HOUR(C203) = 0, "", TIME(HOUR(C203),MINUTE(C203),0))</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O203" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46151</v>
       </c>
       <c r="P203" s="5" t="str">
-        <f>IF(HOUR(B203) = 0, "", TIME(HOUR(B203),MINUTE(B203),0))</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="R203" s="3" t="s">
@@ -12727,27 +12727,27 @@
         <v>0</v>
       </c>
       <c r="K204" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="L204" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M204" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46150</v>
       </c>
       <c r="N204" s="5">
-        <f>IF(HOUR(C204) = 0, "", TIME(HOUR(C204),MINUTE(C204),0))</f>
+        <f t="shared" si="47"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="O204" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46150</v>
       </c>
       <c r="P204" s="5">
-        <f>IF(HOUR(B204) = 0, "", TIME(HOUR(B204),MINUTE(B204),0))</f>
+        <f t="shared" si="49"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="R204" s="3" t="s">
@@ -12777,15 +12777,15 @@
         <v>1</v>
       </c>
       <c r="K205" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="L205" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M205" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46153</v>
       </c>
       <c r="N205" s="5">
@@ -12805,10 +12805,10 @@
         <v>13</v>
       </c>
       <c r="S205" s="3">
+        <v>48</v>
+      </c>
+      <c r="T205" s="3">
         <v>24</v>
-      </c>
-      <c r="T205" s="3">
-        <v>48</v>
       </c>
     </row>
     <row r="206" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
@@ -12834,23 +12834,23 @@
         <v>0</v>
       </c>
       <c r="K206" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="L206" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M206" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46154</v>
       </c>
       <c r="N206" s="5">
-        <f>IF(HOUR(C206) = 0, "", TIME(HOUR(C206),MINUTE(C206),0))</f>
+        <f t="shared" ref="N206:N212" si="51">IF(HOUR(C206) = 0, "", TIME(HOUR(C206),MINUTE(C206),0))</f>
         <v>0.39583333333333331</v>
       </c>
       <c r="O206" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46154</v>
       </c>
       <c r="P206" s="5">
@@ -12884,23 +12884,23 @@
         <v>0</v>
       </c>
       <c r="K207" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="L207" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M207" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46155</v>
       </c>
       <c r="N207" s="5">
-        <f>IF(HOUR(C207) = 0, "", TIME(HOUR(C207),MINUTE(C207),0))</f>
+        <f t="shared" si="51"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="O207" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46155</v>
       </c>
       <c r="P207" s="5">
@@ -12934,19 +12934,19 @@
         <v>1</v>
       </c>
       <c r="K208" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="L208" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M208" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46157</v>
       </c>
       <c r="N208" s="5" t="str">
-        <f>IF(HOUR(C208) = 0, "", TIME(HOUR(C208),MINUTE(C208),0))</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O208" s="6">
@@ -12987,23 +12987,23 @@
         <v>0</v>
       </c>
       <c r="K209" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="L209" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M209" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46157</v>
       </c>
       <c r="N209" s="5" t="str">
-        <f>IF(HOUR(C209) = 0, "", TIME(HOUR(C209),MINUTE(C209),0))</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O209" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46158</v>
       </c>
       <c r="P209" s="5" t="str">
@@ -13037,23 +13037,23 @@
         <v>1</v>
       </c>
       <c r="K210" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="L210" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M210" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46160</v>
       </c>
       <c r="N210" s="5">
-        <f>IF(HOUR(C210) = 0, "", TIME(HOUR(C210),MINUTE(C210),0))</f>
+        <f t="shared" si="51"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="O210" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46160</v>
       </c>
       <c r="P210" s="5">
@@ -13089,23 +13089,23 @@
         <v>0</v>
       </c>
       <c r="K211" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="L211" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M211" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46161</v>
       </c>
       <c r="N211" s="5" t="str">
-        <f>IF(HOUR(C211) = 0, "", TIME(HOUR(C211),MINUTE(C211),0))</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O211" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46162</v>
       </c>
       <c r="P211" s="5" t="str">
@@ -13139,23 +13139,23 @@
         <v>0</v>
       </c>
       <c r="K212" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="L212" s="3" t="b">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="M212" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="46"/>
         <v>46161</v>
       </c>
       <c r="N212" s="5" t="str">
-        <f>IF(HOUR(C212) = 0, "", TIME(HOUR(C212),MINUTE(C212),0))</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O212" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="48"/>
         <v>46162</v>
       </c>
       <c r="P212" s="5" t="str">
